--- a/Data/CasesByZIPCode.xlsx
+++ b/Data/CasesByZIPCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaclark/SoftwareProjects/CasesByZipCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaclark/SoftwareProjects/Mapping/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354AB46C-D5B1-024D-9189-6A0F5FE15F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78A7230-F91B-E843-B76F-123E0F72841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2760" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4255,9 +4255,6 @@
     <t>99362</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ZIP_Code</t>
   </si>
   <si>
@@ -4273,14 +4270,17 @@
     <t>Not Available</t>
   </si>
   <si>
-    <t>null</t>
+    <t>OtherMessage</t>
+  </si>
+  <si>
+    <t>"Data not available as population is less than 1000"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -4296,6 +4296,12 @@
       <color rgb="FFF28E2B"/>
       <name val="Tableau Bold"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4305,14 +4311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4343,11 +4342,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4666,59 +4665,66 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="D422" sqref="D422"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1414</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1416</v>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1416</v>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1">
@@ -4837,14 +4843,17 @@
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1416</v>
+      <c r="B12" s="1">
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1">
@@ -4903,7 +4912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -4917,7 +4926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -4931,7 +4940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,21 +4954,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1416</v>
+      <c r="B20" s="1">
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -4973,7 +4985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -4987,7 +4999,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -5001,7 +5013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -5015,7 +5027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -5029,7 +5041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -5043,35 +5055,41 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>1416</v>
+      <c r="B27" s="1">
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>1416</v>
+      <c r="B28" s="1">
+        <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
@@ -5085,7 +5103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="1" t="s">
         <v>103</v>
       </c>
@@ -5099,7 +5117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -5113,21 +5131,24 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>1416</v>
+      <c r="B32" s="1">
+        <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -5141,7 +5162,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -5155,21 +5176,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>1416</v>
+      <c r="B35" s="1">
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
@@ -5183,21 +5207,24 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>1416</v>
+      <c r="B37" s="1">
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="1" t="s">
         <v>129</v>
       </c>
@@ -5211,7 +5238,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="1" t="s">
         <v>133</v>
       </c>
@@ -5225,7 +5252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
@@ -5239,7 +5266,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="1" t="s">
         <v>141</v>
       </c>
@@ -5253,7 +5280,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -5267,7 +5294,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
@@ -5281,21 +5308,24 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>1416</v>
+      <c r="B44" s="1">
+        <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="1" t="s">
         <v>155</v>
       </c>
@@ -5309,7 +5339,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="1" t="s">
         <v>159</v>
       </c>
@@ -5323,7 +5353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="1" t="s">
         <v>163</v>
       </c>
@@ -5337,7 +5367,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" s="1" t="s">
         <v>167</v>
       </c>
@@ -5351,7 +5381,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
@@ -5365,21 +5395,24 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>1416</v>
+      <c r="B50" s="1">
+        <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="1" t="s">
         <v>177</v>
       </c>
@@ -5393,7 +5426,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="1" t="s">
         <v>181</v>
       </c>
@@ -5407,7 +5440,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="1" t="s">
         <v>185</v>
       </c>
@@ -5421,7 +5454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="1" t="s">
         <v>189</v>
       </c>
@@ -5435,7 +5468,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" s="1" t="s">
         <v>193</v>
       </c>
@@ -5449,21 +5482,24 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>1416</v>
+      <c r="B56" s="1">
+        <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" s="1" t="s">
         <v>199</v>
       </c>
@@ -5477,7 +5513,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="1" t="s">
         <v>203</v>
       </c>
@@ -5491,7 +5527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="1" t="s">
         <v>207</v>
       </c>
@@ -5505,7 +5541,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="1" t="s">
         <v>211</v>
       </c>
@@ -5519,7 +5555,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="1" t="s">
         <v>215</v>
       </c>
@@ -5533,7 +5569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" s="1" t="s">
         <v>219</v>
       </c>
@@ -5547,7 +5583,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="1" t="s">
         <v>223</v>
       </c>
@@ -5561,7 +5597,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" s="1" t="s">
         <v>227</v>
       </c>
@@ -5575,7 +5611,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="1" t="s">
         <v>231</v>
       </c>
@@ -5589,21 +5625,24 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>1416</v>
+      <c r="B66" s="1">
+        <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" s="1" t="s">
         <v>237</v>
       </c>
@@ -5617,7 +5656,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" s="1" t="s">
         <v>241</v>
       </c>
@@ -5631,7 +5670,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" s="1" t="s">
         <v>245</v>
       </c>
@@ -5645,35 +5684,41 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>1416</v>
+      <c r="B70" s="1">
+        <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>1416</v>
+      <c r="B71" s="1">
+        <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" s="1" t="s">
         <v>253</v>
       </c>
@@ -5687,7 +5732,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" s="1" t="s">
         <v>257</v>
       </c>
@@ -5701,7 +5746,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="1" t="s">
         <v>261</v>
       </c>
@@ -5715,7 +5760,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" s="1" t="s">
         <v>265</v>
       </c>
@@ -5729,7 +5774,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" s="1" t="s">
         <v>269</v>
       </c>
@@ -5743,7 +5788,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" s="1" t="s">
         <v>273</v>
       </c>
@@ -5757,7 +5802,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" s="1" t="s">
         <v>277</v>
       </c>
@@ -5771,35 +5816,41 @@
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>1416</v>
+      <c r="B79" s="1">
+        <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>1416</v>
+      <c r="B80" s="1">
+        <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" s="1" t="s">
         <v>285</v>
       </c>
@@ -5813,7 +5864,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" s="1" t="s">
         <v>289</v>
       </c>
@@ -5827,21 +5878,24 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>1416</v>
+      <c r="B83" s="1">
+        <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" s="1" t="s">
         <v>295</v>
       </c>
@@ -5855,7 +5909,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" s="1" t="s">
         <v>299</v>
       </c>
@@ -5869,21 +5923,24 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>1416</v>
+      <c r="B86" s="1">
+        <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" s="1" t="s">
         <v>305</v>
       </c>
@@ -5897,7 +5954,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" s="1" t="s">
         <v>309</v>
       </c>
@@ -5911,21 +5968,24 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>1416</v>
+      <c r="B89" s="1">
+        <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>310</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" s="1" t="s">
         <v>315</v>
       </c>
@@ -5939,7 +5999,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" s="1" t="s">
         <v>319</v>
       </c>
@@ -5953,7 +6013,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" s="1" t="s">
         <v>323</v>
       </c>
@@ -5967,35 +6027,41 @@
         <v>320</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>1416</v>
+      <c r="B93" s="1">
+        <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>324</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>1416</v>
+      <c r="B94" s="1">
+        <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>326</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" s="1" t="s">
         <v>331</v>
       </c>
@@ -6009,7 +6075,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" s="1" t="s">
         <v>335</v>
       </c>
@@ -6023,7 +6089,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="1" t="s">
         <v>339</v>
       </c>
@@ -6037,7 +6103,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" s="1" t="s">
         <v>343</v>
       </c>
@@ -6051,7 +6117,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="1" t="s">
         <v>347</v>
       </c>
@@ -6065,35 +6131,41 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>1416</v>
+      <c r="B100" s="1">
+        <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>1416</v>
+      <c r="B101" s="1">
+        <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>350</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="1" t="s">
         <v>355</v>
       </c>
@@ -6107,21 +6179,24 @@
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>1416</v>
+      <c r="B103" s="1">
+        <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>356</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="1" t="s">
         <v>361</v>
       </c>
@@ -6135,21 +6210,24 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>1416</v>
+      <c r="B105" s="1">
+        <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>362</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="1" t="s">
         <v>367</v>
       </c>
@@ -6163,7 +6241,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="1" t="s">
         <v>371</v>
       </c>
@@ -6177,7 +6255,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="1" t="s">
         <v>375</v>
       </c>
@@ -6191,7 +6269,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="1" t="s">
         <v>379</v>
       </c>
@@ -6205,7 +6283,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="1" t="s">
         <v>383</v>
       </c>
@@ -6219,7 +6297,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="1" t="s">
         <v>387</v>
       </c>
@@ -6233,18 +6311,21 @@
         <v>384</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>1416</v>
+      <c r="B112" s="1">
+        <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>388</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1">
@@ -6471,7 +6552,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" s="1" t="s">
         <v>457</v>
       </c>
@@ -6485,7 +6566,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" s="1" t="s">
         <v>461</v>
       </c>
@@ -6499,7 +6580,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" s="1" t="s">
         <v>465</v>
       </c>
@@ -6513,7 +6594,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" s="1" t="s">
         <v>469</v>
       </c>
@@ -6527,7 +6608,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" s="1" t="s">
         <v>473</v>
       </c>
@@ -6541,7 +6622,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" s="1" t="s">
         <v>477</v>
       </c>
@@ -6555,7 +6636,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" s="1" t="s">
         <v>481</v>
       </c>
@@ -6569,7 +6650,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="1" t="s">
         <v>485</v>
       </c>
@@ -6583,7 +6664,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" s="1" t="s">
         <v>489</v>
       </c>
@@ -6597,21 +6678,24 @@
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>1416</v>
+      <c r="B138" s="1">
+        <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>490</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" s="1" t="s">
         <v>495</v>
       </c>
@@ -6625,7 +6709,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" s="1" t="s">
         <v>499</v>
       </c>
@@ -6639,35 +6723,41 @@
         <v>496</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>1416</v>
+      <c r="B141" s="1">
+        <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>500</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>1416</v>
+      <c r="B142" s="1">
+        <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>502</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" s="1" t="s">
         <v>507</v>
       </c>
@@ -6681,7 +6771,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" s="1" t="s">
         <v>511</v>
       </c>
@@ -6695,7 +6785,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" s="1" t="s">
         <v>515</v>
       </c>
@@ -6709,7 +6799,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" s="1" t="s">
         <v>519</v>
       </c>
@@ -6723,7 +6813,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" s="1" t="s">
         <v>523</v>
       </c>
@@ -6737,7 +6827,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" s="1" t="s">
         <v>527</v>
       </c>
@@ -6751,35 +6841,41 @@
         <v>524</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>1416</v>
+      <c r="B149" s="1">
+        <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>528</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>1416</v>
+      <c r="B150" s="1">
+        <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>530</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" s="1" t="s">
         <v>535</v>
       </c>
@@ -6793,7 +6889,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" s="1" t="s">
         <v>539</v>
       </c>
@@ -6807,7 +6903,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" s="1" t="s">
         <v>543</v>
       </c>
@@ -6821,7 +6917,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" s="1" t="s">
         <v>547</v>
       </c>
@@ -6835,7 +6931,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" s="1" t="s">
         <v>551</v>
       </c>
@@ -6849,21 +6945,24 @@
         <v>548</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>1416</v>
+      <c r="B156" s="1">
+        <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>552</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" s="1" t="s">
         <v>557</v>
       </c>
@@ -6877,21 +6976,24 @@
         <v>554</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>1416</v>
+      <c r="B158" s="1">
+        <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>558</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" s="1" t="s">
         <v>563</v>
       </c>
@@ -6905,7 +7007,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" s="1" t="s">
         <v>567</v>
       </c>
@@ -6919,7 +7021,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="1" t="s">
         <v>571</v>
       </c>
@@ -6933,7 +7035,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="1" t="s">
         <v>575</v>
       </c>
@@ -6947,7 +7049,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="1" t="s">
         <v>579</v>
       </c>
@@ -6961,35 +7063,41 @@
         <v>576</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>1416</v>
+      <c r="B164" s="1">
+        <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>580</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>1416</v>
+      <c r="B165" s="1">
+        <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>582</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="1" t="s">
         <v>587</v>
       </c>
@@ -7003,35 +7111,41 @@
         <v>584</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>1416</v>
+      <c r="B167" s="1">
+        <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>588</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>1416</v>
+      <c r="B168" s="1">
+        <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>590</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="1" t="s">
         <v>595</v>
       </c>
@@ -7045,7 +7159,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="1" t="s">
         <v>599</v>
       </c>
@@ -7059,21 +7173,24 @@
         <v>596</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>1416</v>
+      <c r="B171" s="1">
+        <v>0</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>600</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" s="1" t="s">
         <v>605</v>
       </c>
@@ -7087,7 +7204,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="1" t="s">
         <v>609</v>
       </c>
@@ -7101,7 +7218,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" s="1" t="s">
         <v>613</v>
       </c>
@@ -7115,21 +7232,24 @@
         <v>610</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>1416</v>
+      <c r="B175" s="1">
+        <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" s="1" t="s">
         <v>619</v>
       </c>
@@ -7143,7 +7263,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" s="1" t="s">
         <v>623</v>
       </c>
@@ -7157,7 +7277,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" s="1" t="s">
         <v>627</v>
       </c>
@@ -7171,7 +7291,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" s="1" t="s">
         <v>631</v>
       </c>
@@ -7185,21 +7305,24 @@
         <v>628</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>1416</v>
+      <c r="B180" s="1">
+        <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>632</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" s="1" t="s">
         <v>637</v>
       </c>
@@ -7213,7 +7336,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" s="1" t="s">
         <v>641</v>
       </c>
@@ -7227,7 +7350,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" s="1" t="s">
         <v>645</v>
       </c>
@@ -7241,7 +7364,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" s="1" t="s">
         <v>649</v>
       </c>
@@ -7255,21 +7378,24 @@
         <v>646</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>1416</v>
+      <c r="B185" s="1">
+        <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>650</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" s="1" t="s">
         <v>655</v>
       </c>
@@ -7283,35 +7409,41 @@
         <v>652</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>1416</v>
+      <c r="B187" s="1">
+        <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>656</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>1416</v>
+      <c r="B188" s="1">
+        <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>658</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" s="1" t="s">
         <v>663</v>
       </c>
@@ -7325,7 +7457,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" s="1" t="s">
         <v>667</v>
       </c>
@@ -7339,7 +7471,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" s="1" t="s">
         <v>671</v>
       </c>
@@ -7353,21 +7485,24 @@
         <v>668</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>1416</v>
+      <c r="B192" s="1">
+        <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>672</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" s="1" t="s">
         <v>677</v>
       </c>
@@ -7381,7 +7516,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" s="1" t="s">
         <v>681</v>
       </c>
@@ -7395,7 +7530,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" s="1" t="s">
         <v>685</v>
       </c>
@@ -7409,7 +7544,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" s="1" t="s">
         <v>689</v>
       </c>
@@ -7423,21 +7558,24 @@
         <v>686</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>1416</v>
+      <c r="B197" s="1">
+        <v>0</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>690</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" s="1" t="s">
         <v>695</v>
       </c>
@@ -7451,7 +7589,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" s="1" t="s">
         <v>699</v>
       </c>
@@ -7465,21 +7603,24 @@
         <v>696</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>1416</v>
+      <c r="B200" s="1">
+        <v>0</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>700</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" s="1" t="s">
         <v>705</v>
       </c>
@@ -7493,21 +7634,24 @@
         <v>702</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>1416</v>
+      <c r="B202" s="1">
+        <v>0</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>706</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" s="1" t="s">
         <v>711</v>
       </c>
@@ -7521,7 +7665,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" s="1" t="s">
         <v>715</v>
       </c>
@@ -7535,7 +7679,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" s="1" t="s">
         <v>719</v>
       </c>
@@ -7549,7 +7693,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" s="1" t="s">
         <v>723</v>
       </c>
@@ -7563,7 +7707,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" s="1" t="s">
         <v>727</v>
       </c>
@@ -7577,7 +7721,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" s="1" t="s">
         <v>731</v>
       </c>
@@ -7591,7 +7735,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" s="1" t="s">
         <v>735</v>
       </c>
@@ -7605,7 +7749,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" s="1" t="s">
         <v>739</v>
       </c>
@@ -7619,7 +7763,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" s="1" t="s">
         <v>743</v>
       </c>
@@ -7633,21 +7777,24 @@
         <v>740</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>1416</v>
+      <c r="B212" s="1">
+        <v>0</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>744</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" s="1" t="s">
         <v>749</v>
       </c>
@@ -7661,21 +7808,24 @@
         <v>746</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>1416</v>
+      <c r="B214" s="1">
+        <v>0</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>750</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" s="1" t="s">
         <v>755</v>
       </c>
@@ -7689,49 +7839,58 @@
         <v>752</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>1416</v>
+      <c r="B216" s="1">
+        <v>0</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>756</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>1416</v>
+      <c r="B217" s="1">
+        <v>0</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>758</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>1416</v>
+      <c r="B218" s="1">
+        <v>0</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>760</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" s="1" t="s">
         <v>765</v>
       </c>
@@ -7745,21 +7904,24 @@
         <v>762</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>1416</v>
+      <c r="B220" s="1">
+        <v>0</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>766</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" s="1" t="s">
         <v>771</v>
       </c>
@@ -7773,7 +7935,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1">
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" s="1" t="s">
         <v>775</v>
       </c>
@@ -7787,7 +7949,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1">
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" s="1" t="s">
         <v>779</v>
       </c>
@@ -7801,7 +7963,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1">
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" s="1" t="s">
         <v>783</v>
       </c>
@@ -7815,7 +7977,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1">
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225" s="1" t="s">
         <v>787</v>
       </c>
@@ -7829,7 +7991,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1">
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226" s="1" t="s">
         <v>791</v>
       </c>
@@ -7843,35 +8005,41 @@
         <v>788</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>1416</v>
+      <c r="B227" s="1">
+        <v>0</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>792</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>1416</v>
+      <c r="B228" s="1">
+        <v>0</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>794</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1">
       <c r="A229" s="1" t="s">
         <v>799</v>
       </c>
@@ -7885,21 +8053,24 @@
         <v>796</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>1416</v>
+      <c r="B230" s="1">
+        <v>0</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>800</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1">
       <c r="A231" s="1" t="s">
         <v>805</v>
       </c>
@@ -7913,21 +8084,24 @@
         <v>802</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>1416</v>
+      <c r="B232" s="1">
+        <v>0</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>806</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233" s="1" t="s">
         <v>811</v>
       </c>
@@ -7941,7 +8115,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1">
+    <row r="234" spans="1:5" hidden="1">
       <c r="A234" s="1" t="s">
         <v>815</v>
       </c>
@@ -7955,7 +8129,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1">
+    <row r="235" spans="1:5" hidden="1">
       <c r="A235" s="1" t="s">
         <v>819</v>
       </c>
@@ -7969,21 +8143,24 @@
         <v>816</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>1416</v>
+      <c r="B236" s="1">
+        <v>0</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>820</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237" s="1" t="s">
         <v>825</v>
       </c>
@@ -7997,7 +8174,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1">
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238" s="1" t="s">
         <v>829</v>
       </c>
@@ -8011,7 +8188,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1">
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239" s="1" t="s">
         <v>833</v>
       </c>
@@ -8025,7 +8202,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1">
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240" s="1" t="s">
         <v>837</v>
       </c>
@@ -8039,21 +8216,24 @@
         <v>834</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>1416</v>
+      <c r="B241" s="1">
+        <v>0</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>838</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242" s="1" t="s">
         <v>843</v>
       </c>
@@ -8067,7 +8247,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1">
+    <row r="243" spans="1:5" hidden="1">
       <c r="A243" s="1" t="s">
         <v>847</v>
       </c>
@@ -8081,35 +8261,41 @@
         <v>844</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>1416</v>
+      <c r="B244" s="1">
+        <v>0</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>848</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>1416</v>
+      <c r="B245" s="1">
+        <v>0</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" s="1" t="s">
         <v>855</v>
       </c>
@@ -8123,21 +8309,24 @@
         <v>852</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>1416</v>
+      <c r="B247" s="1">
+        <v>0</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>856</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248" s="1" t="s">
         <v>861</v>
       </c>
@@ -8151,7 +8340,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1">
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249" s="1" t="s">
         <v>865</v>
       </c>
@@ -8165,7 +8354,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1">
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" s="1" t="s">
         <v>869</v>
       </c>
@@ -8179,7 +8368,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1">
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" s="1" t="s">
         <v>873</v>
       </c>
@@ -8193,7 +8382,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1">
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" s="1" t="s">
         <v>877</v>
       </c>
@@ -8207,7 +8396,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1">
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" s="1" t="s">
         <v>881</v>
       </c>
@@ -8221,21 +8410,24 @@
         <v>878</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>1416</v>
+      <c r="B254" s="1">
+        <v>0</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>882</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" s="1" t="s">
         <v>887</v>
       </c>
@@ -8249,7 +8441,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1">
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256" s="1" t="s">
         <v>891</v>
       </c>
@@ -8263,7 +8455,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1">
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257" s="1" t="s">
         <v>895</v>
       </c>
@@ -8277,21 +8469,24 @@
         <v>892</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>1416</v>
+      <c r="B258" s="1">
+        <v>0</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>896</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259" s="1" t="s">
         <v>901</v>
       </c>
@@ -8305,7 +8500,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1">
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260" s="1" t="s">
         <v>905</v>
       </c>
@@ -8319,7 +8514,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1">
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261" s="1" t="s">
         <v>909</v>
       </c>
@@ -8333,7 +8528,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1">
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262" s="1" t="s">
         <v>913</v>
       </c>
@@ -8347,35 +8542,41 @@
         <v>910</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>1416</v>
+      <c r="B263" s="1">
+        <v>0</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>914</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>1416</v>
+      <c r="B264" s="1">
+        <v>0</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>916</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265" s="1" t="s">
         <v>921</v>
       </c>
@@ -8389,7 +8590,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1">
+    <row r="266" spans="1:5" hidden="1">
       <c r="A266" s="1" t="s">
         <v>925</v>
       </c>
@@ -8403,7 +8604,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1">
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267" s="1" t="s">
         <v>929</v>
       </c>
@@ -8417,63 +8618,75 @@
         <v>926</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>1416</v>
+      <c r="B268" s="1">
+        <v>0</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>930</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>1416</v>
+      <c r="B269" s="1">
+        <v>0</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>932</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>1416</v>
+      <c r="B270" s="1">
+        <v>0</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>934</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>1416</v>
+      <c r="B271" s="1">
+        <v>0</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>936</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272" s="1" t="s">
         <v>941</v>
       </c>
@@ -8487,7 +8700,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1">
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273" s="1" t="s">
         <v>945</v>
       </c>
@@ -8501,77 +8714,92 @@
         <v>942</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>1416</v>
+      <c r="B274" s="1">
+        <v>0</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>946</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>1416</v>
+      <c r="B275" s="1">
+        <v>0</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>948</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>1416</v>
+      <c r="B276" s="1">
+        <v>0</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>950</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>1416</v>
+      <c r="B277" s="1">
+        <v>0</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>952</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>1416</v>
+      <c r="B278" s="1">
+        <v>0</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>954</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" s="1" t="s">
         <v>959</v>
       </c>
@@ -8585,7 +8813,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" s="1" t="s">
         <v>963</v>
       </c>
@@ -8599,7 +8827,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" s="1" t="s">
         <v>967</v>
       </c>
@@ -8613,7 +8841,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" s="1" t="s">
         <v>971</v>
       </c>
@@ -8627,7 +8855,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" s="1" t="s">
         <v>975</v>
       </c>
@@ -8641,7 +8869,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" s="1" t="s">
         <v>979</v>
       </c>
@@ -8655,7 +8883,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" s="1" t="s">
         <v>983</v>
       </c>
@@ -8669,7 +8897,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" s="1" t="s">
         <v>987</v>
       </c>
@@ -8683,7 +8911,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" s="1" t="s">
         <v>991</v>
       </c>
@@ -8697,7 +8925,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" s="1" t="s">
         <v>995</v>
       </c>
@@ -8711,21 +8939,24 @@
         <v>992</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>1416</v>
+      <c r="B289" s="1">
+        <v>0</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>996</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8739,7 +8970,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8753,7 +8984,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" s="1" t="s">
         <v>1009</v>
       </c>
@@ -8767,7 +8998,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" s="1" t="s">
         <v>1013</v>
       </c>
@@ -8781,7 +9012,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" s="1" t="s">
         <v>1017</v>
       </c>
@@ -8795,21 +9026,24 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>1416</v>
+      <c r="B295" s="1">
+        <v>0</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" s="1" t="s">
         <v>1023</v>
       </c>
@@ -8823,21 +9057,24 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>1416</v>
+      <c r="B297" s="1">
+        <v>0</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" s="1" t="s">
         <v>1029</v>
       </c>
@@ -8851,21 +9088,24 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>1416</v>
+      <c r="B299" s="1">
+        <v>0</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" s="1" t="s">
         <v>1035</v>
       </c>
@@ -8879,21 +9119,24 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>1416</v>
+      <c r="B301" s="1">
+        <v>0</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" s="1" t="s">
         <v>1041</v>
       </c>
@@ -8907,7 +9150,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" s="1" t="s">
         <v>1045</v>
       </c>
@@ -8921,7 +9164,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" s="1" t="s">
         <v>1049</v>
       </c>
@@ -8935,7 +9178,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1">
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" s="1" t="s">
         <v>1053</v>
       </c>
@@ -8949,7 +9192,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1">
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" s="1" t="s">
         <v>1057</v>
       </c>
@@ -8963,21 +9206,24 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>1416</v>
+      <c r="B307" s="1">
+        <v>0</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" hidden="1">
       <c r="A308" s="1" t="s">
         <v>1063</v>
       </c>
@@ -8991,7 +9237,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1">
+    <row r="309" spans="1:5" hidden="1">
       <c r="A309" s="1" t="s">
         <v>1067</v>
       </c>
@@ -9005,7 +9251,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1">
+    <row r="310" spans="1:5" hidden="1">
       <c r="A310" s="1" t="s">
         <v>1071</v>
       </c>
@@ -9019,63 +9265,75 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>1416</v>
+      <c r="B311" s="1">
+        <v>0</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>1416</v>
+      <c r="B312" s="1">
+        <v>0</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>1416</v>
+      <c r="B313" s="1">
+        <v>0</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>1416</v>
+      <c r="B314" s="1">
+        <v>0</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" s="1" t="s">
         <v>1083</v>
       </c>
@@ -9089,7 +9347,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1">
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" s="1" t="s">
         <v>1087</v>
       </c>
@@ -9103,49 +9361,58 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>1416</v>
+      <c r="B317" s="1">
+        <v>0</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>1416</v>
+      <c r="B318" s="1">
+        <v>0</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>1416</v>
+      <c r="B319" s="1">
+        <v>0</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" s="1" t="s">
         <v>1097</v>
       </c>
@@ -9159,7 +9426,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1">
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321" s="1" t="s">
         <v>1101</v>
       </c>
@@ -9173,7 +9440,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1">
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322" s="1" t="s">
         <v>1105</v>
       </c>
@@ -9187,105 +9454,126 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>1416</v>
+      <c r="B323" s="1">
+        <v>0</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>1416</v>
+      <c r="B324" s="1">
+        <v>0</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>1416</v>
+      <c r="B325" s="1">
+        <v>0</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>1416</v>
+      <c r="B326" s="1">
+        <v>0</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>1416</v>
+      <c r="B327" s="1">
+        <v>0</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>1416</v>
+      <c r="B328" s="1">
+        <v>0</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>1416</v>
+      <c r="B329" s="1">
+        <v>0</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330" s="1" t="s">
         <v>1123</v>
       </c>
@@ -9299,7 +9587,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1">
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331" s="1" t="s">
         <v>1127</v>
       </c>
@@ -9313,7 +9601,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1">
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332" s="1" t="s">
         <v>1131</v>
       </c>
@@ -9327,7 +9615,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1">
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333" s="1" t="s">
         <v>1135</v>
       </c>
@@ -9341,7 +9629,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1">
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334" s="1" t="s">
         <v>1139</v>
       </c>
@@ -9355,7 +9643,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1">
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335" s="1" t="s">
         <v>1143</v>
       </c>
@@ -9369,49 +9657,58 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>1416</v>
+      <c r="B336" s="1">
+        <v>0</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>1416</v>
+      <c r="B337" s="1">
+        <v>0</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>1416</v>
+      <c r="B338" s="1">
+        <v>0</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" s="1" t="s">
         <v>1153</v>
       </c>
@@ -9425,91 +9722,109 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>1416</v>
+      <c r="B340" s="1">
+        <v>0</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>1416</v>
+      <c r="B341" s="1">
+        <v>0</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>1416</v>
+      <c r="B342" s="1">
+        <v>0</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>1158</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>1416</v>
+      <c r="B343" s="1">
+        <v>0</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>1416</v>
+      <c r="B344" s="1">
+        <v>0</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>1162</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>1416</v>
+      <c r="B345" s="1">
+        <v>0</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>1164</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346" s="1" t="s">
         <v>1169</v>
       </c>
@@ -9523,49 +9838,58 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>1416</v>
+      <c r="B347" s="1">
+        <v>0</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>1416</v>
+      <c r="B348" s="1">
+        <v>0</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>1172</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>1416</v>
+      <c r="B349" s="1">
+        <v>0</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>1174</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" s="1" t="s">
         <v>1179</v>
       </c>
@@ -9579,7 +9903,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1">
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351" s="1" t="s">
         <v>1183</v>
       </c>
@@ -9593,7 +9917,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" s="1" t="s">
         <v>1187</v>
       </c>
@@ -9607,49 +9931,58 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:5">
       <c r="A353" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>1416</v>
+      <c r="B353" s="1">
+        <v>0</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>1416</v>
+      <c r="B354" s="1">
+        <v>0</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>1416</v>
+      <c r="B355" s="1">
+        <v>0</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" s="1" t="s">
         <v>1197</v>
       </c>
@@ -9663,7 +9996,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1">
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" s="1" t="s">
         <v>1201</v>
       </c>
@@ -9677,7 +10010,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1">
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358" s="1" t="s">
         <v>1205</v>
       </c>
@@ -9691,21 +10024,24 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>1416</v>
+      <c r="B359" s="1">
+        <v>0</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>1206</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" s="1" t="s">
         <v>1211</v>
       </c>
@@ -9719,7 +10055,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1">
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" s="1" t="s">
         <v>1215</v>
       </c>
@@ -9733,7 +10069,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1">
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" s="1" t="s">
         <v>1219</v>
       </c>
@@ -9747,7 +10083,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1">
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" s="1" t="s">
         <v>1223</v>
       </c>
@@ -9761,35 +10097,41 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:5">
       <c r="A364" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>1416</v>
+      <c r="B364" s="1">
+        <v>0</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B365" s="1" t="s">
-        <v>1416</v>
+      <c r="B365" s="1">
+        <v>0</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>1226</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" s="1" t="s">
         <v>1231</v>
       </c>
@@ -9803,7 +10145,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1">
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" s="1" t="s">
         <v>1235</v>
       </c>
@@ -9817,21 +10159,24 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:5">
       <c r="A368" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>1416</v>
+      <c r="B368" s="1">
+        <v>0</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369" s="1" t="s">
         <v>1241</v>
       </c>
@@ -9845,21 +10190,24 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:5">
       <c r="A370" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>1416</v>
+      <c r="B370" s="1">
+        <v>0</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" s="1" t="s">
         <v>1247</v>
       </c>
@@ -9873,21 +10221,24 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:5">
       <c r="A372" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>1416</v>
+      <c r="B372" s="1">
+        <v>0</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>1248</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" s="1" t="s">
         <v>1253</v>
       </c>
@@ -9901,21 +10252,24 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:5">
       <c r="A374" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="B374" s="1" t="s">
-        <v>1416</v>
+      <c r="B374" s="1">
+        <v>0</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" hidden="1">
       <c r="A375" s="1" t="s">
         <v>1259</v>
       </c>
@@ -9929,7 +10283,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1">
+    <row r="376" spans="1:5" hidden="1">
       <c r="A376" s="1" t="s">
         <v>1263</v>
       </c>
@@ -9943,7 +10297,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1">
+    <row r="377" spans="1:5" hidden="1">
       <c r="A377" s="1" t="s">
         <v>1267</v>
       </c>
@@ -9957,63 +10311,75 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:5">
       <c r="A378" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>1416</v>
+      <c r="B378" s="1">
+        <v>0</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
       <c r="A379" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>1416</v>
+      <c r="B379" s="1">
+        <v>0</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>1270</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>1416</v>
+      <c r="B380" s="1">
+        <v>0</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="B381" s="1" t="s">
-        <v>1416</v>
+      <c r="B381" s="1">
+        <v>0</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>1274</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1">
       <c r="A382" s="1" t="s">
         <v>1279</v>
       </c>
@@ -10027,21 +10393,24 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:5">
       <c r="A383" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>1416</v>
+      <c r="B383" s="1">
+        <v>0</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" hidden="1">
       <c r="A384" s="1" t="s">
         <v>1285</v>
       </c>
@@ -10055,77 +10424,92 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:5">
       <c r="A385" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="B385" s="1" t="s">
-        <v>1416</v>
+      <c r="B385" s="1">
+        <v>0</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
       <c r="A386" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>1416</v>
+      <c r="B386" s="1">
+        <v>0</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>1288</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
       <c r="A387" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>1416</v>
+      <c r="B387" s="1">
+        <v>0</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>1416</v>
+      <c r="B388" s="1">
+        <v>0</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>1292</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>1416</v>
+      <c r="B389" s="1">
+        <v>0</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390" s="1" t="s">
         <v>1299</v>
       </c>
@@ -10139,7 +10523,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1">
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391" s="1" t="s">
         <v>1303</v>
       </c>
@@ -10153,7 +10537,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392" s="1" t="s">
         <v>1307</v>
       </c>
@@ -10167,21 +10551,24 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:5">
       <c r="A393" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>1416</v>
+      <c r="B393" s="1">
+        <v>0</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394" s="1" t="s">
         <v>1313</v>
       </c>
@@ -10195,49 +10582,58 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:5">
       <c r="A395" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="B395" s="1" t="s">
-        <v>1416</v>
+      <c r="B395" s="1">
+        <v>0</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>1314</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
       <c r="A396" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="B396" s="1" t="s">
-        <v>1416</v>
+      <c r="B396" s="1">
+        <v>0</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>1316</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
       <c r="A397" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>1416</v>
+      <c r="B397" s="1">
+        <v>0</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>1318</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398" s="1" t="s">
         <v>1323</v>
       </c>
@@ -10251,21 +10647,24 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:5">
       <c r="A399" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="B399" s="1" t="s">
-        <v>1416</v>
+      <c r="B399" s="1">
+        <v>0</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400" s="1" t="s">
         <v>1329</v>
       </c>
@@ -10279,21 +10678,24 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:5">
       <c r="A401" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>1416</v>
+      <c r="B401" s="1">
+        <v>0</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" s="1" t="s">
         <v>1335</v>
       </c>
@@ -10307,7 +10709,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" s="1" t="s">
         <v>1339</v>
       </c>
@@ -10321,49 +10723,58 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:5">
       <c r="A404" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="B404" s="1" t="s">
-        <v>1416</v>
+      <c r="B404" s="1">
+        <v>0</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1340</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
       <c r="A405" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>1416</v>
+      <c r="B405" s="1">
+        <v>0</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>1342</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
       <c r="A406" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>1416</v>
+      <c r="B406" s="1">
+        <v>0</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>1344</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" s="1" t="s">
         <v>1349</v>
       </c>
@@ -10377,49 +10788,58 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:5">
       <c r="A408" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>1416</v>
+      <c r="B408" s="1">
+        <v>0</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1350</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
       <c r="A409" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>1416</v>
+      <c r="B409" s="1">
+        <v>0</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>1352</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
       <c r="A410" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>1416</v>
+      <c r="B410" s="1">
+        <v>0</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>1354</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" s="1" t="s">
         <v>1359</v>
       </c>
@@ -10433,7 +10853,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" s="1" t="s">
         <v>1363</v>
       </c>
@@ -10447,21 +10867,24 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:5">
       <c r="A413" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>1416</v>
+      <c r="B413" s="1">
+        <v>0</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" s="1" t="s">
         <v>1369</v>
       </c>
@@ -10475,7 +10898,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" s="1" t="s">
         <v>1373</v>
       </c>
@@ -10489,147 +10912,177 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:5">
       <c r="A416" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>1416</v>
+      <c r="B416" s="1">
+        <v>0</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1374</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
       <c r="A417" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B417" s="1" t="s">
-        <v>1416</v>
+      <c r="B417" s="1">
+        <v>0</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
       <c r="A418" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>1416</v>
+      <c r="B418" s="1">
+        <v>0</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1378</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
       <c r="A419" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>1416</v>
+      <c r="B419" s="1">
+        <v>0</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1380</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
       <c r="A420" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>1416</v>
+      <c r="B420" s="1">
+        <v>0</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
       <c r="A421" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B421" s="1" t="s">
-        <v>1416</v>
+      <c r="B421" s="1">
+        <v>0</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1384</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
       <c r="A422" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>1416</v>
+      <c r="B422" s="1">
+        <v>0</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
       <c r="A423" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>1416</v>
+      <c r="B423" s="1">
+        <v>0</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1388</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
       <c r="A424" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>1416</v>
+      <c r="B424" s="1">
+        <v>0</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1390</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
       <c r="A425" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="B425" s="1" t="s">
-        <v>1416</v>
+      <c r="B425" s="1">
+        <v>0</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" hidden="1">
+        <v>1414</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" s="1" t="s">
         <v>1397</v>
       </c>
@@ -10643,7 +11096,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" s="1" t="s">
         <v>1401</v>
       </c>
@@ -10657,7 +11110,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1">
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428" s="1" t="s">
         <v>1405</v>
       </c>
@@ -10671,39 +11124,45 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:5">
       <c r="A429" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>1416</v>
+      <c r="B429" s="1">
+        <v>0</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1406</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
+        <v>1414</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
       <c r="A430" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>1416</v>
+      <c r="B430" s="1">
+        <v>0</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B430" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Not Available"/>
+        <filter val="null"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Data/CasesByZIPCode.xlsx
+++ b/Data/CasesByZIPCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaclark/SoftwareProjects/Mapping/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78A7230-F91B-E843-B76F-123E0F72841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{847D7148-040A-FD47-81B9-235F5631C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4662,11 +4662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B430"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4727,7 +4726,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -4797,7 +4796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -4971,7 +4970,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -4999,7 +4998,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>103</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>129</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>133</v>
       </c>
@@ -5252,7 +5251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>141</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>155</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>159</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>163</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>167</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>177</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>181</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>185</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>189</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>193</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>199</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>203</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>207</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>211</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>215</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>219</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>223</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>227</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>231</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>237</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>241</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>245</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>253</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>257</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>261</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>265</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>269</v>
       </c>
@@ -5788,7 +5787,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>273</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>277</v>
       </c>
@@ -5850,7 +5849,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>285</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>289</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1">
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>295</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>299</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1">
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>305</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1">
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>309</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>315</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1">
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>319</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1">
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>323</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1">
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>331</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>335</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>339</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1">
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>343</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>347</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>355</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>361</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>367</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>371</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1">
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>375</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1">
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>379</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1">
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>383</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1">
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>387</v>
       </c>
@@ -6328,7 +6327,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>393</v>
       </c>
@@ -6342,7 +6341,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>397</v>
       </c>
@@ -6356,7 +6355,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>401</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>405</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>409</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1">
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>413</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>417</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>421</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>425</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1">
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>429</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>433</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1">
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>437</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>441</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1">
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>445</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>449</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1">
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>453</v>
       </c>
@@ -6552,7 +6551,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1">
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
         <v>457</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1">
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
         <v>461</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1">
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
         <v>465</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1">
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
         <v>469</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1">
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
         <v>473</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1">
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
         <v>477</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1">
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
         <v>481</v>
       </c>
@@ -6650,7 +6649,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1">
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
         <v>485</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1">
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
         <v>489</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1">
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
         <v>495</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1">
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
         <v>499</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1">
+    <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
         <v>507</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1">
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
         <v>511</v>
       </c>
@@ -6785,7 +6784,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1">
+    <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
         <v>515</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1">
+    <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
         <v>519</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1">
+    <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
         <v>523</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1">
+    <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
         <v>527</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1">
+    <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
         <v>535</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1">
+    <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
         <v>539</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1">
+    <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
         <v>543</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1">
+    <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
         <v>547</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1">
+    <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
         <v>551</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1">
+    <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
         <v>557</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1">
+    <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
         <v>563</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1">
+    <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
         <v>567</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
         <v>571</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
         <v>575</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>579</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1">
+    <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
         <v>587</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
         <v>595</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
         <v>599</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1">
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
         <v>605</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1">
+    <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
         <v>609</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1">
+    <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
         <v>613</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1">
+    <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
         <v>619</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1">
+    <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
         <v>623</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1">
+    <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
         <v>627</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1">
+    <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
         <v>631</v>
       </c>
@@ -7322,7 +7321,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1">
+    <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
         <v>637</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
         <v>641</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
         <v>645</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1">
+    <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
         <v>649</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1">
+    <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
         <v>655</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
         <v>663</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1">
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
         <v>667</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1">
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
         <v>671</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1">
+    <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
         <v>677</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1">
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
         <v>681</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1">
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
         <v>685</v>
       </c>
@@ -7544,7 +7543,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1">
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
         <v>689</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1">
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
         <v>695</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1">
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
         <v>699</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1">
+    <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
         <v>705</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>711</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1">
+    <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
         <v>715</v>
       </c>
@@ -7679,7 +7678,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1">
+    <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
         <v>719</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1">
+    <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
         <v>723</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1">
+    <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
         <v>727</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1">
+    <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
         <v>731</v>
       </c>
@@ -7735,7 +7734,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1">
+    <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
         <v>735</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1">
+    <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
         <v>739</v>
       </c>
@@ -7763,7 +7762,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1">
+    <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
         <v>743</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
         <v>749</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1">
+    <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
         <v>755</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1">
+    <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
         <v>765</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1">
+    <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
         <v>771</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1">
+    <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
         <v>775</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1">
+    <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
         <v>779</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1">
+    <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
         <v>783</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1">
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
         <v>787</v>
       </c>
@@ -7991,7 +7990,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1">
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
         <v>791</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1">
+    <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
         <v>799</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1">
+    <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
         <v>805</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1">
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
         <v>811</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1">
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
         <v>815</v>
       </c>
@@ -8129,7 +8128,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1">
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
         <v>819</v>
       </c>
@@ -8160,7 +8159,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1">
+    <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
         <v>825</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
         <v>829</v>
       </c>
@@ -8188,7 +8187,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1">
+    <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
         <v>833</v>
       </c>
@@ -8202,7 +8201,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1">
+    <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
         <v>837</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1">
+    <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
         <v>843</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1">
+    <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
         <v>847</v>
       </c>
@@ -8295,7 +8294,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1">
+    <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
         <v>855</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1">
+    <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
         <v>861</v>
       </c>
@@ -8340,7 +8339,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1">
+    <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
         <v>865</v>
       </c>
@@ -8354,7 +8353,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1">
+    <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
         <v>869</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1">
+    <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
         <v>873</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1">
+    <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
         <v>877</v>
       </c>
@@ -8396,7 +8395,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1">
+    <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
         <v>881</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1">
+    <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
         <v>887</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1">
+    <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
         <v>891</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1">
+    <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
         <v>895</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1">
+    <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
         <v>901</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1">
+    <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
         <v>905</v>
       </c>
@@ -8514,7 +8513,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1">
+    <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
         <v>909</v>
       </c>
@@ -8528,7 +8527,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1">
+    <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
         <v>913</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1">
+    <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
         <v>921</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1">
+    <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
         <v>925</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1">
+    <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
         <v>929</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1">
+    <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
         <v>941</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1">
+    <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
         <v>945</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1">
+    <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
         <v>959</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1">
+    <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
         <v>963</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1">
+    <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
         <v>967</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1">
+    <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
         <v>971</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1">
+    <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
         <v>975</v>
       </c>
@@ -8869,7 +8868,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1">
+    <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
         <v>979</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1">
+    <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
         <v>983</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1">
+    <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
         <v>987</v>
       </c>
@@ -8911,7 +8910,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1">
+    <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
         <v>991</v>
       </c>
@@ -8925,7 +8924,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1">
+    <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
         <v>995</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1">
+    <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1">
+    <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1">
+    <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
         <v>1009</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1">
+    <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
         <v>1013</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1">
+    <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
         <v>1017</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1">
+    <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
         <v>1023</v>
       </c>
@@ -9074,7 +9073,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1">
+    <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
         <v>1029</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1">
+    <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
         <v>1035</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1">
+    <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
         <v>1041</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1">
+    <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
         <v>1045</v>
       </c>
@@ -9164,7 +9163,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1">
+    <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
         <v>1049</v>
       </c>
@@ -9178,7 +9177,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1">
+    <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
         <v>1053</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1">
+    <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
         <v>1057</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1">
+    <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
         <v>1063</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1">
+    <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
         <v>1067</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1">
+    <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
         <v>1071</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1">
+    <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
         <v>1083</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1">
+    <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
         <v>1087</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1">
+    <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
         <v>1097</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1">
+    <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
         <v>1101</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1">
+    <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
         <v>1105</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1">
+    <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
         <v>1123</v>
       </c>
@@ -9587,7 +9586,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1">
+    <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
         <v>1127</v>
       </c>
@@ -9601,7 +9600,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1">
+    <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
         <v>1131</v>
       </c>
@@ -9615,7 +9614,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1">
+    <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
         <v>1135</v>
       </c>
@@ -9629,7 +9628,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1">
+    <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
         <v>1139</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1">
+    <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
         <v>1143</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1">
+    <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
         <v>1153</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1">
+    <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
         <v>1169</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1">
+    <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
         <v>1179</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1">
+    <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
         <v>1183</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1">
+    <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
         <v>1187</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1">
+    <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
         <v>1197</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1">
+    <row r="357" spans="1:5">
       <c r="A357" s="1" t="s">
         <v>1201</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1">
+    <row r="358" spans="1:5">
       <c r="A358" s="1" t="s">
         <v>1205</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1">
+    <row r="360" spans="1:5">
       <c r="A360" s="1" t="s">
         <v>1211</v>
       </c>
@@ -10055,7 +10054,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1">
+    <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
         <v>1215</v>
       </c>
@@ -10069,7 +10068,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1">
+    <row r="362" spans="1:5">
       <c r="A362" s="1" t="s">
         <v>1219</v>
       </c>
@@ -10083,7 +10082,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1">
+    <row r="363" spans="1:5">
       <c r="A363" s="1" t="s">
         <v>1223</v>
       </c>
@@ -10131,7 +10130,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1">
+    <row r="366" spans="1:5">
       <c r="A366" s="1" t="s">
         <v>1231</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1">
+    <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
         <v>1235</v>
       </c>
@@ -10176,7 +10175,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1">
+    <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
         <v>1241</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1">
+    <row r="371" spans="1:5">
       <c r="A371" s="1" t="s">
         <v>1247</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1">
+    <row r="373" spans="1:5">
       <c r="A373" s="1" t="s">
         <v>1253</v>
       </c>
@@ -10269,7 +10268,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1">
+    <row r="375" spans="1:5">
       <c r="A375" s="1" t="s">
         <v>1259</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1">
+    <row r="376" spans="1:5">
       <c r="A376" s="1" t="s">
         <v>1263</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1">
+    <row r="377" spans="1:5">
       <c r="A377" s="1" t="s">
         <v>1267</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1">
+    <row r="382" spans="1:5">
       <c r="A382" s="1" t="s">
         <v>1279</v>
       </c>
@@ -10410,7 +10409,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1">
+    <row r="384" spans="1:5">
       <c r="A384" s="1" t="s">
         <v>1285</v>
       </c>
@@ -10509,7 +10508,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1">
+    <row r="390" spans="1:5">
       <c r="A390" s="1" t="s">
         <v>1299</v>
       </c>
@@ -10523,7 +10522,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1">
+    <row r="391" spans="1:5">
       <c r="A391" s="1" t="s">
         <v>1303</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1">
+    <row r="392" spans="1:5">
       <c r="A392" s="1" t="s">
         <v>1307</v>
       </c>
@@ -10568,7 +10567,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1">
+    <row r="394" spans="1:5">
       <c r="A394" s="1" t="s">
         <v>1313</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1">
+    <row r="398" spans="1:5">
       <c r="A398" s="1" t="s">
         <v>1323</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1">
+    <row r="400" spans="1:5">
       <c r="A400" s="1" t="s">
         <v>1329</v>
       </c>
@@ -10695,7 +10694,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1">
+    <row r="402" spans="1:5">
       <c r="A402" s="1" t="s">
         <v>1335</v>
       </c>
@@ -10709,7 +10708,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1">
+    <row r="403" spans="1:5">
       <c r="A403" s="1" t="s">
         <v>1339</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1">
+    <row r="407" spans="1:5">
       <c r="A407" s="1" t="s">
         <v>1349</v>
       </c>
@@ -10839,7 +10838,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1">
+    <row r="411" spans="1:5">
       <c r="A411" s="1" t="s">
         <v>1359</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1">
+    <row r="412" spans="1:5">
       <c r="A412" s="1" t="s">
         <v>1363</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1">
+    <row r="414" spans="1:5">
       <c r="A414" s="1" t="s">
         <v>1369</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1">
+    <row r="415" spans="1:5">
       <c r="A415" s="1" t="s">
         <v>1373</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1">
+    <row r="426" spans="1:5">
       <c r="A426" s="1" t="s">
         <v>1397</v>
       </c>
@@ -11096,7 +11095,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1">
+    <row r="427" spans="1:5">
       <c r="A427" s="1" t="s">
         <v>1401</v>
       </c>
@@ -11110,7 +11109,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1">
+    <row r="428" spans="1:5">
       <c r="A428" s="1" t="s">
         <v>1405</v>
       </c>
@@ -11159,13 +11158,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B430" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="null"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>